--- a/bi_office_hours.xlsx
+++ b/bi_office_hours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enpal-my.sharepoint.com/personal/carol_wang_enpal_de/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolwang/Documents/BI office Hour/BI-office-hours-participants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0033AC0E-F5E6-3647-9CDA-A130C3235350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FCFD8D-450C-9F4E-BDD7-459870C6CC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="participants" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>participant</t>
   </si>
@@ -32,19 +32,31 @@
     <t>Alexander Novikov</t>
   </si>
   <si>
-    <t>Antje</t>
+    <t>Andrijana Thian</t>
+  </si>
+  <si>
+    <t>Antje Geisendörfer</t>
   </si>
   <si>
     <t>Carol Wang</t>
   </si>
   <si>
-    <t xml:space="preserve">Christian </t>
-  </si>
-  <si>
-    <t>Kristina</t>
-  </si>
-  <si>
-    <t>Thomas</t>
+    <t>Christian Fraatz</t>
+  </si>
+  <si>
+    <t>Fernanda Talzzia</t>
+  </si>
+  <si>
+    <t>Kristina Voloshina</t>
+  </si>
+  <si>
+    <t>Rafael de Oliveira</t>
+  </si>
+  <si>
+    <t>Rami AI-Fahham</t>
+  </si>
+  <si>
+    <t>Thomas Battaglia</t>
   </si>
   <si>
     <t>Yameng  Lu</t>
@@ -428,9 +440,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="132" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -495,6 +507,38 @@
         <v>8</v>
       </c>
       <c r="B8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -505,10 +549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,22 +562,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45744</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45744</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>